--- a/outputs/ant_loads_110N_ACL_forces..xlsx
+++ b/outputs/ant_loads_110N_ACL_forces..xlsx
@@ -356,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>27.64123163</v>
       </c>
       <c r="C2">
-        <v>54</v>
+        <v>55.069671239999998</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -394,10 +394,10 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>50.839432129999999</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>36.575044920000003</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -405,10 +405,10 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>54.914999999999999</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -416,21 +416,32 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>81.524000000000001</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>19.693999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <v>79.197999999999993</v>
+      </c>
+      <c r="C6">
+        <v>28.651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
         <v>90</v>
       </c>
-      <c r="B6">
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
+      <c r="B7">
+        <v>46.562821079999999</v>
+      </c>
+      <c r="C7">
+        <v>20.114708830000001</v>
       </c>
     </row>
   </sheetData>
